--- a/Buck/data_sheets/price_list_buck.xlsx
+++ b/Buck/data_sheets/price_list_buck.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan Taylor\Desktop\wind_turbine_buck\data_sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rct47/Wind-Turbine/Buck/data_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="37320" windowHeight="21140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Price</t>
   </si>
@@ -44,9 +50,6 @@
     <t>Sam4s</t>
   </si>
   <si>
-    <t>195c100</t>
-  </si>
-  <si>
     <t>GP2D012A060A</t>
   </si>
   <si>
@@ -77,13 +80,25 @@
     <t>http://www.digikey.co.nz/product-detail/en/global-power-technologies-group/GP2D012A060A/1560-1047-5-ND/5056200</t>
   </si>
   <si>
-    <t>http://www.mouser.com/ProductDetail/Hammond-Manufacturing/195C100/?qs=sGAEpiMZZMsg%252by3WlYCkUz0dxeSDrDZIVvaN%252buMWJ7s%3d</t>
+    <t>Cap</t>
+  </si>
+  <si>
+    <t>http://www.digikey.co.nz/product-search/en?keywords=CGS222U040R2C</t>
+  </si>
+  <si>
+    <t>CGS222U040R2C</t>
+  </si>
+  <si>
+    <t>http://www.digikey.co.nz/product-search/en?keywords=1140-390K-RC</t>
+  </si>
+  <si>
+    <t>1140-390K-RC-ND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -458,20 +473,20 @@
   <dimension ref="A2:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="1" max="2" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -489,40 +504,40 @@
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1">
-        <v>275.77</v>
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <f>D3*C3</f>
-        <v>275.77</v>
+        <v>96</v>
       </c>
       <c r="F3">
         <f>SUM(E:E)</f>
-        <v>299.46999999999997</v>
+        <v>163.69999999999999</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>12</v>
@@ -535,12 +550,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3">
         <v>7.2</v>
@@ -553,15 +568,15 @@
         <v>7.2</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
       </c>
       <c r="C6" s="3">
         <v>4.5</v>
@@ -574,136 +589,151 @@
         <v>4.5</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3">
+        <v>44</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E28">
         <f t="shared" si="0"/>
         <v>0</v>

--- a/Buck/data_sheets/price_list_buck.xlsx
+++ b/Buck/data_sheets/price_list_buck.xlsx
@@ -1,36 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rct47/Wind-Turbine/Buck/data_sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan Taylor\Desktop\Wind Turbine\Buck\data_sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="37320" windowHeight="21140"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="37320" windowHeight="21135"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Price</t>
   </si>
@@ -93,13 +93,34 @@
   </si>
   <si>
     <t>1140-390K-RC-ND</t>
+  </si>
+  <si>
+    <t>Connector</t>
+  </si>
+  <si>
+    <t>lug</t>
+  </si>
+  <si>
+    <t>RL9080-103-F1</t>
+  </si>
+  <si>
+    <t>http://uk.farnell.com/amphenol-industrial/rl9080-103-f1/connector-power-entry-plug-200a/dp/2393397?MER=sy-me-pd-mi-acce</t>
+  </si>
+  <si>
+    <t>RL00801-35RE</t>
+  </si>
+  <si>
+    <t>http://uk.farnell.com/amphenol-industrial/rl00801-35re/connector-power-entry-rcpt-150a/dp/2393388</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +148,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -149,12 +176,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -473,18 +501,18 @@
   <dimension ref="A2:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="8" max="8" width="18.83203125" customWidth="1"/>
+    <col min="8" max="8" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -507,7 +535,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -526,13 +554,13 @@
       </c>
       <c r="F3">
         <f>SUM(E:E)</f>
-        <v>163.69999999999999</v>
+        <v>227.7</v>
       </c>
       <c r="H3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -550,7 +578,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -571,7 +599,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -592,7 +620,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -613,127 +641,160 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="3">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3">
+        <v>4</v>
+      </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3">
+        <v>4</v>
+      </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E28">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -742,8 +803,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H6" r:id="rId1"/>
+    <hyperlink ref="H9" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Buck/data_sheets/price_list_buck.xlsx
+++ b/Buck/data_sheets/price_list_buck.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryan Taylor\Desktop\Wind Turbine\Buck\data_sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rct47/Wind-Turbine/Buck/data_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="37320" windowHeight="21135"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27720" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -501,18 +501,18 @@
   <dimension ref="A2:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="8" max="8" width="18.875" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -535,7 +535,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -560,7 +560,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -578,7 +578,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -599,7 +599,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -620,7 +620,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -641,7 +641,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
@@ -662,7 +662,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
@@ -683,19 +683,19 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -704,97 +704,97 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E28">
         <f t="shared" si="0"/>
         <v>0</v>
